--- a/input/Enum.xlsx
+++ b/input/Enum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\01_python\excel2csv\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB65694-6CFD-401E-B018-A28E29BED53F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9852973D-060F-4E73-928B-2E88866D0D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12135" yWindow="1410" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Enum" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
   <si>
     <t>Name</t>
     <phoneticPr fontId="2"/>
@@ -138,6 +138,49 @@
     <rPh sb="1" eb="2">
       <t>メイ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>size</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>uint8</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Size</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>EnumTypeNameComment</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>型名コメント</t>
+    <rPh sb="0" eb="2">
+      <t>カタメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テストEnum</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テストEnumB</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Header</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ヘッダか</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -168,7 +211,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -211,6 +254,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -239,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -251,11 +300,24 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="lightDown">
+          <fgColor theme="2" tint="-0.749961851863155"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="lightDown">
@@ -540,19 +602,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.625" customWidth="1"/>
+    <col min="6" max="6" width="15.375" customWidth="1"/>
+    <col min="7" max="7" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
@@ -560,25 +627,37 @@
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:8">
       <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
@@ -589,268 +668,313 @@
         <v>3</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:8">
+      <c r="A5" s="5"/>
+      <c r="B5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="5"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="5"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="5"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="7">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="5"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="2">
+        <v>3</v>
+      </c>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="5"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="7">
+        <v>4</v>
+      </c>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="5"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="2">
+        <v>5</v>
+      </c>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="5"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="7">
+        <v>6</v>
+      </c>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="5"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="2">
+        <v>7</v>
+      </c>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="5"/>
-      <c r="B6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0</v>
-      </c>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="5"/>
-      <c r="B7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="5"/>
-      <c r="B8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="2">
-        <v>2</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="5"/>
-      <c r="B9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="2">
-        <v>3</v>
-      </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="5"/>
-      <c r="B10" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="2">
-        <v>4</v>
-      </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="5"/>
-      <c r="B11" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="2">
-        <v>5</v>
-      </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="5"/>
-      <c r="B12" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="2">
-        <v>6</v>
-      </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="5"/>
-      <c r="B13" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="2">
-        <v>7</v>
-      </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="5"/>
-      <c r="B14" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="2">
-        <v>8</v>
-      </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="5"/>
+      <c r="B15" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="5"/>
-      <c r="B16" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="5"/>
-      <c r="B17" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="5"/>
-      <c r="B18" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="5"/>
-      <c r="B19" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="5"/>
-      <c r="B20" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="5"/>
-      <c r="B21" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="5"/>
-      <c r="B22" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="5"/>
-      <c r="B23" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="5"/>
-      <c r="B24" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="4" t="s">
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="A1:E24">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="H5:H6 H8:H13 G9 G11 G13 F6:F13 C14:H14 D8:F13 D7:H7 C1:H4 A1:B14 C5:F6 C7:C13 A16:H23 H15 A15:F15">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>OR($A1="#",A$1="#")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6 G8 G10 G12">
+    <cfRule type="expression" dxfId="0" priority="4">
+      <formula>OR($A5="#",G$1="#")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/input/Enum.xlsx
+++ b/input/Enum.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\01_python\excel2csv\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9852973D-060F-4E73-928B-2E88866D0D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6654E691-A025-4DEF-91B2-1F950E53FBD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12135" yWindow="1410" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="3810" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Enum" sheetId="1" r:id="rId1"/>
@@ -604,8 +604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -967,7 +967,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="H5:H6 H8:H13 G9 G11 G13 F6:F13 C14:H14 D8:F13 D7:H7 C1:H4 A1:B14 C5:F6 C7:C13 A16:H23 H15 A15:F15">
+  <conditionalFormatting sqref="C1:H4 A1:B14 C5:F6 H5:H6 F6:F13 D7:H7 C7:C13 D8:F13 H8:H13 G9 G11 G13 C14:H14 A15:F15 H15 A16:H23">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>OR($A1="#",A$1="#")</formula>
     </cfRule>
